--- a/Cleaned-B-5b PTG Non-Exec Market Analysis - FY20.xlsx
+++ b/Cleaned-B-5b PTG Non-Exec Market Analysis - FY20.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micahcoger/Downloads/FY2020/PBC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UpWork Working\Microsoft Azure and Power Platform Expert\OneDrive_1_03-12-2024\Clean File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4616271D-E4CD-9043-B748-17FB97FA839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29420" yWindow="500" windowWidth="68620" windowHeight="28300" tabRatio="655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7035" tabRatio="655"/>
   </bookViews>
   <sheets>
     <sheet name="5010.05 Summary" sheetId="23" r:id="rId1"/>
     <sheet name="5010.05a Detail Testing" sheetId="24" r:id="rId2"/>
     <sheet name="5010.05b PBC Non-Exec Analysis" sheetId="25" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="250">
   <si>
     <t>Name</t>
   </si>
@@ -865,24 +864,18 @@
   <si>
     <t>PATRICIA WALSH</t>
   </si>
-  <si>
-    <t>PARSONS TRANSPORTATION GROUP</t>
-  </si>
-  <si>
-    <t>VICE PRESIDENT, PROJECT/PROGRAM MANAGEMENT - MARKET ANALYSIS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -941,12 +934,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1251,18 +1238,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1661,7 +1642,7 @@
   </borders>
   <cellStyleXfs count="430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1672,143 +1653,143 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1816,48 +1797,48 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1868,82 +1849,82 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1952,32 +1933,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1987,56 +1968,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2050,33 +2031,33 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2096,11 +2077,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2141,7 +2122,7 @@
     <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2159,16 +2140,16 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="279" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="279" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="279" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="279" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="279" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="279" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,22 +2158,22 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="30" borderId="1" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="29" borderId="1" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="5" borderId="1" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="1" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="4" borderId="1" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="1" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2229,28 +2210,19 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="130" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2262,16 +2234,16 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="10" xfId="427" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="10" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="10" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="10" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2283,22 +2255,22 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="427" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="0" xfId="427" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="427" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="0" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="427" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2310,22 +2282,22 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="8" xfId="427" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="8" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="8" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="8" xfId="427" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2337,441 +2309,441 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="427" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="430">
-    <cellStyle name="20% - Accent1 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent1 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent1 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - Accent2 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - Accent2 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - Accent3 3" xfId="25" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - Accent3 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - Accent4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - Accent4 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - Accent5 2 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - Accent5 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - Accent5 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - Accent6 2 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - Accent6 3" xfId="40" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - Accent6 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="40% - Accent1 2 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="40% - Accent1 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - Accent1 3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="40% - Accent2 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="40% - Accent2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="40% - Accent2 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="40% - Accent3 2 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="40% - Accent3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - Accent3 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="40% - Accent4 2 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="40% - Accent4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="40% - Accent4 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="40% - Accent5 2 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - Accent5 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="40% - Accent5 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="40% - Accent6 2 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="40% - Accent6 3" xfId="70" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="40% - Accent6 3 2" xfId="71" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="60% - Accent1 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="60% - Accent1 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="60% - Accent2 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="60% - Accent2 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - Accent3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - Accent3 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - Accent4 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - Accent4 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="60% - Accent5 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="60% - Accent5 3" xfId="86" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="87" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="60% - Accent6 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="60% - Accent6 3" xfId="89" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Accent1 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Accent1 2 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Accent1 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Accent2 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Accent2 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Accent2 3" xfId="95" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Accent3 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Accent3 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Accent3 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Accent4 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Accent4 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Accent4 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Accent5 2" xfId="102" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Accent5 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Accent5 3" xfId="104" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Accent6 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Accent6 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Accent6 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Bad 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Bad 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Bad 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Calculation 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Calculation 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Calculation 2 2 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Calculation 2 2 2 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Calculation 2 2 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Calculation 2 2 3 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Calculation 2 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Calculation 2 3 2" xfId="118" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Calculation 2 4" xfId="119" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Calculation 2 4 2" xfId="120" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Calculation 3" xfId="121" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Calculation 3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Calculation 3 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Calculation 3 3" xfId="124" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Calculation 3 3 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Check Cell 2" xfId="126" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Check Cell 2 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Check Cell 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Comma 10" xfId="130" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Comma 10 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Comma 10 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Comma 10 3 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Comma 11" xfId="134" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Comma 12" xfId="135" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Comma 12 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Comma 12 3" xfId="404" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Comma 13" xfId="137" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Comma 13 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Comma 14" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Comma 15" xfId="7" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Comma 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Comma 2 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Comma 2 2 2" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Comma 2 2 3" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Comma 2 3" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Comma 2 3 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Comma 2 3 3" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Comma 2 4" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Comma 2 5" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Comma 2 6" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Comma 2 7" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Comma 2 7 2" xfId="416" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Comma 2 8" xfId="148" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Comma 2 9" xfId="149" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Comma 3" xfId="150" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Comma 3 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Comma 3 2 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Comma 3 2 3" xfId="153" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Comma 3 3" xfId="154" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Comma 3 3 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Comma 3 4" xfId="156" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Comma 3 5" xfId="157" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Comma 4" xfId="158" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Comma 4 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Comma 4 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Comma 4 2 2 2" xfId="161" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="Comma 4 2 2 3" xfId="162" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="Comma 4 3" xfId="163" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="Comma 4 3 2" xfId="164" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Comma 4 4" xfId="165" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Comma 4 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Comma 4 5 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Comma 4 6" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Comma 4 6 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Comma 5" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Comma 5 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Comma 5 2 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="Comma 5 2 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Comma 5 3" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Comma 5 3 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="Comma 5 3 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Comma 5 4" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="Comma 5 4 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="Comma 6" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Comma 6 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Comma 6 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="Comma 6 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="Comma 6 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="Comma 7" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="Comma 7 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Comma 7 2 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="Comma 7 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Comma 8" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Comma 8 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Comma 9" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="Comma 9 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="Comma0" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="12"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="13"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="14"/>
+    <cellStyle name="20% - Accent1 3" xfId="15"/>
+    <cellStyle name="20% - Accent1 3 2" xfId="16"/>
+    <cellStyle name="20% - Accent2 2" xfId="17"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="18"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="19"/>
+    <cellStyle name="20% - Accent2 3" xfId="20"/>
+    <cellStyle name="20% - Accent2 3 2" xfId="21"/>
+    <cellStyle name="20% - Accent3 2" xfId="22"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="23"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="24"/>
+    <cellStyle name="20% - Accent3 3" xfId="25"/>
+    <cellStyle name="20% - Accent3 3 2" xfId="26"/>
+    <cellStyle name="20% - Accent4 2" xfId="27"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="28"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="29"/>
+    <cellStyle name="20% - Accent4 3" xfId="30"/>
+    <cellStyle name="20% - Accent4 3 2" xfId="31"/>
+    <cellStyle name="20% - Accent5 2" xfId="32"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="33"/>
+    <cellStyle name="20% - Accent5 2 2 2" xfId="34"/>
+    <cellStyle name="20% - Accent5 3" xfId="35"/>
+    <cellStyle name="20% - Accent5 3 2" xfId="36"/>
+    <cellStyle name="20% - Accent6 2" xfId="37"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="38"/>
+    <cellStyle name="20% - Accent6 2 2 2" xfId="39"/>
+    <cellStyle name="20% - Accent6 3" xfId="40"/>
+    <cellStyle name="20% - Accent6 3 2" xfId="41"/>
+    <cellStyle name="40% - Accent1 2" xfId="42"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="43"/>
+    <cellStyle name="40% - Accent1 2 2 2" xfId="44"/>
+    <cellStyle name="40% - Accent1 3" xfId="45"/>
+    <cellStyle name="40% - Accent1 3 2" xfId="46"/>
+    <cellStyle name="40% - Accent2 2" xfId="47"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="48"/>
+    <cellStyle name="40% - Accent2 2 2 2" xfId="49"/>
+    <cellStyle name="40% - Accent2 3" xfId="50"/>
+    <cellStyle name="40% - Accent2 3 2" xfId="51"/>
+    <cellStyle name="40% - Accent3 2" xfId="52"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="53"/>
+    <cellStyle name="40% - Accent3 2 2 2" xfId="54"/>
+    <cellStyle name="40% - Accent3 3" xfId="55"/>
+    <cellStyle name="40% - Accent3 3 2" xfId="56"/>
+    <cellStyle name="40% - Accent4 2" xfId="57"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="58"/>
+    <cellStyle name="40% - Accent4 2 2 2" xfId="59"/>
+    <cellStyle name="40% - Accent4 3" xfId="60"/>
+    <cellStyle name="40% - Accent4 3 2" xfId="61"/>
+    <cellStyle name="40% - Accent5 2" xfId="62"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="63"/>
+    <cellStyle name="40% - Accent5 2 2 2" xfId="64"/>
+    <cellStyle name="40% - Accent5 3" xfId="65"/>
+    <cellStyle name="40% - Accent5 3 2" xfId="66"/>
+    <cellStyle name="40% - Accent6 2" xfId="67"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="68"/>
+    <cellStyle name="40% - Accent6 2 2 2" xfId="69"/>
+    <cellStyle name="40% - Accent6 3" xfId="70"/>
+    <cellStyle name="40% - Accent6 3 2" xfId="71"/>
+    <cellStyle name="60% - Accent1 2" xfId="72"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="73"/>
+    <cellStyle name="60% - Accent1 3" xfId="74"/>
+    <cellStyle name="60% - Accent2 2" xfId="75"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="76"/>
+    <cellStyle name="60% - Accent2 3" xfId="77"/>
+    <cellStyle name="60% - Accent3 2" xfId="78"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="79"/>
+    <cellStyle name="60% - Accent3 3" xfId="80"/>
+    <cellStyle name="60% - Accent4 2" xfId="81"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="82"/>
+    <cellStyle name="60% - Accent4 3" xfId="83"/>
+    <cellStyle name="60% - Accent5 2" xfId="84"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="85"/>
+    <cellStyle name="60% - Accent5 3" xfId="86"/>
+    <cellStyle name="60% - Accent6 2" xfId="87"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="88"/>
+    <cellStyle name="60% - Accent6 3" xfId="89"/>
+    <cellStyle name="Accent1 2" xfId="90"/>
+    <cellStyle name="Accent1 2 2" xfId="91"/>
+    <cellStyle name="Accent1 3" xfId="92"/>
+    <cellStyle name="Accent2 2" xfId="93"/>
+    <cellStyle name="Accent2 2 2" xfId="94"/>
+    <cellStyle name="Accent2 3" xfId="95"/>
+    <cellStyle name="Accent3 2" xfId="96"/>
+    <cellStyle name="Accent3 2 2" xfId="97"/>
+    <cellStyle name="Accent3 3" xfId="98"/>
+    <cellStyle name="Accent4 2" xfId="99"/>
+    <cellStyle name="Accent4 2 2" xfId="100"/>
+    <cellStyle name="Accent4 3" xfId="101"/>
+    <cellStyle name="Accent5 2" xfId="102"/>
+    <cellStyle name="Accent5 2 2" xfId="103"/>
+    <cellStyle name="Accent5 3" xfId="104"/>
+    <cellStyle name="Accent6 2" xfId="105"/>
+    <cellStyle name="Accent6 2 2" xfId="106"/>
+    <cellStyle name="Accent6 3" xfId="107"/>
+    <cellStyle name="Bad 2" xfId="108"/>
+    <cellStyle name="Bad 2 2" xfId="109"/>
+    <cellStyle name="Bad 3" xfId="110"/>
+    <cellStyle name="Calculation 2" xfId="111"/>
+    <cellStyle name="Calculation 2 2" xfId="112"/>
+    <cellStyle name="Calculation 2 2 2" xfId="113"/>
+    <cellStyle name="Calculation 2 2 2 2" xfId="114"/>
+    <cellStyle name="Calculation 2 2 3" xfId="115"/>
+    <cellStyle name="Calculation 2 2 3 2" xfId="116"/>
+    <cellStyle name="Calculation 2 3" xfId="117"/>
+    <cellStyle name="Calculation 2 3 2" xfId="118"/>
+    <cellStyle name="Calculation 2 4" xfId="119"/>
+    <cellStyle name="Calculation 2 4 2" xfId="120"/>
+    <cellStyle name="Calculation 3" xfId="121"/>
+    <cellStyle name="Calculation 3 2" xfId="122"/>
+    <cellStyle name="Calculation 3 2 2" xfId="123"/>
+    <cellStyle name="Calculation 3 3" xfId="124"/>
+    <cellStyle name="Calculation 3 3 2" xfId="125"/>
+    <cellStyle name="Check Cell 2" xfId="126"/>
+    <cellStyle name="Check Cell 2 2" xfId="127"/>
+    <cellStyle name="Check Cell 3" xfId="128"/>
+    <cellStyle name="Comma 10" xfId="130"/>
+    <cellStyle name="Comma 10 2" xfId="131"/>
+    <cellStyle name="Comma 10 3" xfId="132"/>
+    <cellStyle name="Comma 10 3 2" xfId="133"/>
+    <cellStyle name="Comma 11" xfId="134"/>
+    <cellStyle name="Comma 12" xfId="135"/>
+    <cellStyle name="Comma 12 2" xfId="136"/>
+    <cellStyle name="Comma 12 3" xfId="404"/>
+    <cellStyle name="Comma 13" xfId="137"/>
+    <cellStyle name="Comma 13 2" xfId="405"/>
+    <cellStyle name="Comma 14" xfId="129"/>
+    <cellStyle name="Comma 15" xfId="7"/>
+    <cellStyle name="Comma 2" xfId="10"/>
+    <cellStyle name="Comma 2 2" xfId="138"/>
+    <cellStyle name="Comma 2 2 2" xfId="139"/>
+    <cellStyle name="Comma 2 2 3" xfId="140"/>
+    <cellStyle name="Comma 2 3" xfId="141"/>
+    <cellStyle name="Comma 2 3 2" xfId="142"/>
+    <cellStyle name="Comma 2 3 3" xfId="143"/>
+    <cellStyle name="Comma 2 4" xfId="144"/>
+    <cellStyle name="Comma 2 5" xfId="145"/>
+    <cellStyle name="Comma 2 6" xfId="146"/>
+    <cellStyle name="Comma 2 7" xfId="147"/>
+    <cellStyle name="Comma 2 7 2" xfId="416"/>
+    <cellStyle name="Comma 2 8" xfId="148"/>
+    <cellStyle name="Comma 2 9" xfId="149"/>
+    <cellStyle name="Comma 3" xfId="150"/>
+    <cellStyle name="Comma 3 2" xfId="151"/>
+    <cellStyle name="Comma 3 2 2" xfId="152"/>
+    <cellStyle name="Comma 3 2 3" xfId="153"/>
+    <cellStyle name="Comma 3 3" xfId="154"/>
+    <cellStyle name="Comma 3 3 2" xfId="155"/>
+    <cellStyle name="Comma 3 4" xfId="156"/>
+    <cellStyle name="Comma 3 5" xfId="157"/>
+    <cellStyle name="Comma 4" xfId="158"/>
+    <cellStyle name="Comma 4 2" xfId="159"/>
+    <cellStyle name="Comma 4 2 2" xfId="160"/>
+    <cellStyle name="Comma 4 2 2 2" xfId="161"/>
+    <cellStyle name="Comma 4 2 2 3" xfId="162"/>
+    <cellStyle name="Comma 4 3" xfId="163"/>
+    <cellStyle name="Comma 4 3 2" xfId="164"/>
+    <cellStyle name="Comma 4 4" xfId="165"/>
+    <cellStyle name="Comma 4 5" xfId="166"/>
+    <cellStyle name="Comma 4 5 2" xfId="167"/>
+    <cellStyle name="Comma 4 6" xfId="168"/>
+    <cellStyle name="Comma 4 6 2" xfId="169"/>
+    <cellStyle name="Comma 5" xfId="170"/>
+    <cellStyle name="Comma 5 2" xfId="171"/>
+    <cellStyle name="Comma 5 2 2" xfId="172"/>
+    <cellStyle name="Comma 5 2 2 2" xfId="173"/>
+    <cellStyle name="Comma 5 3" xfId="174"/>
+    <cellStyle name="Comma 5 3 2" xfId="175"/>
+    <cellStyle name="Comma 5 3 3" xfId="176"/>
+    <cellStyle name="Comma 5 4" xfId="177"/>
+    <cellStyle name="Comma 5 4 2" xfId="178"/>
+    <cellStyle name="Comma 6" xfId="179"/>
+    <cellStyle name="Comma 6 2" xfId="180"/>
+    <cellStyle name="Comma 6 2 2" xfId="181"/>
+    <cellStyle name="Comma 6 3" xfId="182"/>
+    <cellStyle name="Comma 6 3 2" xfId="183"/>
+    <cellStyle name="Comma 7" xfId="184"/>
+    <cellStyle name="Comma 7 2" xfId="185"/>
+    <cellStyle name="Comma 7 2 2" xfId="186"/>
+    <cellStyle name="Comma 7 3" xfId="187"/>
+    <cellStyle name="Comma 8" xfId="188"/>
+    <cellStyle name="Comma 8 2" xfId="189"/>
+    <cellStyle name="Comma 9" xfId="190"/>
+    <cellStyle name="Comma 9 2" xfId="191"/>
+    <cellStyle name="Comma0" xfId="192"/>
     <cellStyle name="Currency" xfId="427" builtinId="4"/>
-    <cellStyle name="Currency 10" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Currency 11" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="Currency 12" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="Currency 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="Currency 2 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Currency 2 2 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="Currency 2 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="Currency 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="Currency 2 4" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="Currency 3" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="Currency 3 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="Currency 3 2 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="Currency 3 2 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Currency 3 3" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="Currency 3 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="Currency 3 4" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="Currency 3 4 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="Currency 3 4 3" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="Currency 3 5" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="Currency 3 5 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="Currency 3 6" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Currency 3 6 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="Currency 3 7" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Currency 4" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="Currency 4 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="Currency 4 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="Currency 4 3" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="Currency 4 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Currency 4 3 3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Currency 4 4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="Currency 5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="Currency 5 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="Currency 6" xfId="225" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="Currency 6 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="Currency 7" xfId="227" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="Currency 7 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="Currency 8" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Currency 8 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="Currency 8 3" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Currency 8 3 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="Currency 9" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="Currency 9 2" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="Explanatory Text 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="Explanatory Text 3" xfId="237" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="Good 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="Good 2 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="Good 3" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="Heading 1 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="Heading 1 2 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="Heading 1 3" xfId="243" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="Heading 1 3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="Heading 2 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="Heading 2 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="Heading 2 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="Heading 2 3 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="Heading 3 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="Heading 3 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="Heading 3 3" xfId="251" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="Heading 3 3 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="Heading 4 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Heading 4 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="Heading 4 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="Heading 4 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="257" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="Input 2" xfId="258" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="Input 2 2" xfId="259" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="Input 2 2 2" xfId="260" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="Input 2 2 2 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="Input 2 2 3" xfId="262" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="Input 2 2 3 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="Input 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="Input 2 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="Input 2 4" xfId="266" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="Input 2 4 2" xfId="267" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="Input 3" xfId="268" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="Input 3 2" xfId="269" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="Input 3 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="Input 3 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="Input 3 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="Linked Cell 2" xfId="273" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="Linked Cell 2 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="Linked Cell 3" xfId="275" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="Neutral 2" xfId="276" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="Neutral 2 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Neutral 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Currency 10" xfId="194"/>
+    <cellStyle name="Currency 11" xfId="195"/>
+    <cellStyle name="Currency 12" xfId="193"/>
+    <cellStyle name="Currency 2" xfId="196"/>
+    <cellStyle name="Currency 2 2" xfId="197"/>
+    <cellStyle name="Currency 2 2 2" xfId="198"/>
+    <cellStyle name="Currency 2 2 3" xfId="199"/>
+    <cellStyle name="Currency 2 3" xfId="200"/>
+    <cellStyle name="Currency 2 4" xfId="201"/>
+    <cellStyle name="Currency 3" xfId="202"/>
+    <cellStyle name="Currency 3 2" xfId="203"/>
+    <cellStyle name="Currency 3 2 2" xfId="204"/>
+    <cellStyle name="Currency 3 2 3" xfId="205"/>
+    <cellStyle name="Currency 3 3" xfId="206"/>
+    <cellStyle name="Currency 3 3 2" xfId="207"/>
+    <cellStyle name="Currency 3 4" xfId="208"/>
+    <cellStyle name="Currency 3 4 2" xfId="209"/>
+    <cellStyle name="Currency 3 4 3" xfId="210"/>
+    <cellStyle name="Currency 3 5" xfId="211"/>
+    <cellStyle name="Currency 3 5 2" xfId="212"/>
+    <cellStyle name="Currency 3 6" xfId="213"/>
+    <cellStyle name="Currency 3 6 2" xfId="214"/>
+    <cellStyle name="Currency 3 7" xfId="215"/>
+    <cellStyle name="Currency 4" xfId="216"/>
+    <cellStyle name="Currency 4 2" xfId="217"/>
+    <cellStyle name="Currency 4 2 2" xfId="218"/>
+    <cellStyle name="Currency 4 3" xfId="219"/>
+    <cellStyle name="Currency 4 3 2" xfId="220"/>
+    <cellStyle name="Currency 4 3 3" xfId="221"/>
+    <cellStyle name="Currency 4 4" xfId="222"/>
+    <cellStyle name="Currency 5" xfId="223"/>
+    <cellStyle name="Currency 5 2" xfId="224"/>
+    <cellStyle name="Currency 6" xfId="225"/>
+    <cellStyle name="Currency 6 2" xfId="226"/>
+    <cellStyle name="Currency 7" xfId="227"/>
+    <cellStyle name="Currency 7 2" xfId="228"/>
+    <cellStyle name="Currency 8" xfId="229"/>
+    <cellStyle name="Currency 8 2" xfId="230"/>
+    <cellStyle name="Currency 8 3" xfId="231"/>
+    <cellStyle name="Currency 8 3 2" xfId="232"/>
+    <cellStyle name="Currency 9" xfId="233"/>
+    <cellStyle name="Currency 9 2" xfId="234"/>
+    <cellStyle name="Explanatory Text 2" xfId="235"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="236"/>
+    <cellStyle name="Explanatory Text 3" xfId="237"/>
+    <cellStyle name="Good 2" xfId="238"/>
+    <cellStyle name="Good 2 2" xfId="239"/>
+    <cellStyle name="Good 3" xfId="240"/>
+    <cellStyle name="Heading 1 2" xfId="241"/>
+    <cellStyle name="Heading 1 2 2" xfId="242"/>
+    <cellStyle name="Heading 1 3" xfId="243"/>
+    <cellStyle name="Heading 1 3 2" xfId="244"/>
+    <cellStyle name="Heading 2 2" xfId="245"/>
+    <cellStyle name="Heading 2 2 2" xfId="246"/>
+    <cellStyle name="Heading 2 3" xfId="247"/>
+    <cellStyle name="Heading 2 3 2" xfId="248"/>
+    <cellStyle name="Heading 3 2" xfId="249"/>
+    <cellStyle name="Heading 3 2 2" xfId="250"/>
+    <cellStyle name="Heading 3 3" xfId="251"/>
+    <cellStyle name="Heading 3 3 2" xfId="252"/>
+    <cellStyle name="Heading 4 2" xfId="253"/>
+    <cellStyle name="Heading 4 2 2" xfId="254"/>
+    <cellStyle name="Heading 4 3" xfId="255"/>
+    <cellStyle name="Heading 4 3 2" xfId="256"/>
+    <cellStyle name="Hyperlink 2" xfId="257"/>
+    <cellStyle name="Input 2" xfId="258"/>
+    <cellStyle name="Input 2 2" xfId="259"/>
+    <cellStyle name="Input 2 2 2" xfId="260"/>
+    <cellStyle name="Input 2 2 2 2" xfId="261"/>
+    <cellStyle name="Input 2 2 3" xfId="262"/>
+    <cellStyle name="Input 2 2 3 2" xfId="263"/>
+    <cellStyle name="Input 2 3" xfId="264"/>
+    <cellStyle name="Input 2 3 2" xfId="265"/>
+    <cellStyle name="Input 2 4" xfId="266"/>
+    <cellStyle name="Input 2 4 2" xfId="267"/>
+    <cellStyle name="Input 3" xfId="268"/>
+    <cellStyle name="Input 3 2" xfId="269"/>
+    <cellStyle name="Input 3 2 2" xfId="270"/>
+    <cellStyle name="Input 3 3" xfId="271"/>
+    <cellStyle name="Input 3 3 2" xfId="272"/>
+    <cellStyle name="Linked Cell 2" xfId="273"/>
+    <cellStyle name="Linked Cell 2 2" xfId="274"/>
+    <cellStyle name="Linked Cell 3" xfId="275"/>
+    <cellStyle name="Neutral 2" xfId="276"/>
+    <cellStyle name="Neutral 2 2" xfId="277"/>
+    <cellStyle name="Neutral 3" xfId="278"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="279" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="Normal 10 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Normal 10 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="Normal 10 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="Normal 11" xfId="283" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="Normal 11 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="Normal 12" xfId="11" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="Normal 13" xfId="406" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="Normal 13 2" xfId="420" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="Normal 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="288" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="289" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="Normal 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="291" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="Normal 2 3 2 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="Normal 2 3 2 3" xfId="293" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="Normal 2 3 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="Normal 2 3 4" xfId="295" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="Normal 2 3 5" xfId="296" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Normal 2 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Normal 2 5" xfId="298" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Normal 2 6" xfId="299" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Normal 2 7" xfId="300" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Normal 2 8" xfId="407" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Normal 2 9" xfId="285" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Normal 2 9 2" xfId="417" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Normal 3 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Normal 3 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Normal 3 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Normal 3 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Normal 3 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Normal 3 7" xfId="309" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Normal 3 8" xfId="301" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Normal 3 8 2" xfId="418" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Normal 4 10" xfId="412" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Normal 4 11" xfId="425" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Normal 4 12" xfId="428" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="312" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="410" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Normal 4 2 3 2" xfId="423" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Normal 4 2 4" xfId="311" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Normal 4 2 5" xfId="414" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Normal 4 3" xfId="313" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="315" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="Normal 4 4" xfId="316" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Normal 4 5" xfId="318" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Normal 4 6" xfId="319" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Normal 4 7" xfId="408" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Normal 4 7 2" xfId="421" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Normal 4 8" xfId="310" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Normal 4 9" xfId="5" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Normal 5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Normal 5 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="Normal 5 2 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="Normal 5 2 3" xfId="411" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="424" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="Normal 5 2 4" xfId="321" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="Normal 5 2 5" xfId="415" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="Normal 5 3" xfId="325" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="Normal 5 3 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="Normal 5 4" xfId="409" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="Normal 5 4 2" xfId="422" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="Normal 5 5" xfId="320" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="Normal 5 6" xfId="6" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="Normal 5 7" xfId="413" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="Normal 5 8" xfId="426" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="Normal 5 9" xfId="429" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="Normal 6" xfId="327" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="Normal 6 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="Normal 6 3" xfId="329" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="Normal 6 3 2" xfId="330" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="Normal 7" xfId="331" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="Normal 7 2" xfId="332" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="Normal 7 2 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="Normal 7 2 3" xfId="334" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="Normal 7 3" xfId="335" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
-    <cellStyle name="Normal 7 3 2" xfId="336" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
-    <cellStyle name="Normal 7 4" xfId="337" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
-    <cellStyle name="Normal 8" xfId="338" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
-    <cellStyle name="Normal 8 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
-    <cellStyle name="Normal 8 2 2" xfId="340" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
-    <cellStyle name="Normal 9" xfId="341" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
-    <cellStyle name="Normal 9 2" xfId="419" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
-    <cellStyle name="Note 2" xfId="342" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
-    <cellStyle name="Note 2 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
-    <cellStyle name="Note 2 2 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
-    <cellStyle name="Note 2 2 2 2" xfId="345" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
-    <cellStyle name="Note 2 2 3" xfId="346" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
-    <cellStyle name="Note 2 2 4" xfId="347" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
-    <cellStyle name="Note 2 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
-    <cellStyle name="Note 2 4" xfId="349" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
-    <cellStyle name="Note 3" xfId="350" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
-    <cellStyle name="Note 3 2" xfId="351" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
-    <cellStyle name="Note 3 2 2" xfId="352" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
-    <cellStyle name="Note 3 3" xfId="353" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
-    <cellStyle name="Note 3 4" xfId="354" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
-    <cellStyle name="Output 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
-    <cellStyle name="Output 2 2" xfId="356" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
-    <cellStyle name="Output 2 2 2" xfId="357" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
-    <cellStyle name="Output 2 2 2 2" xfId="358" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
-    <cellStyle name="Output 2 2 3" xfId="359" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
-    <cellStyle name="Output 2 2 3 2" xfId="360" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
-    <cellStyle name="Output 2 3" xfId="361" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
-    <cellStyle name="Output 2 3 2" xfId="362" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
-    <cellStyle name="Output 2 4" xfId="363" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
-    <cellStyle name="Output 2 4 2" xfId="364" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
-    <cellStyle name="Output 3" xfId="365" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
-    <cellStyle name="Output 3 2" xfId="366" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
-    <cellStyle name="Output 3 2 2" xfId="367" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
-    <cellStyle name="Output 3 3" xfId="368" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
-    <cellStyle name="Output 3 3 2" xfId="369" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
-    <cellStyle name="Percent 2" xfId="370" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
-    <cellStyle name="Percent 2 2" xfId="371" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
-    <cellStyle name="Percent 2 2 2" xfId="372" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
-    <cellStyle name="Percent 2 3" xfId="373" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
-    <cellStyle name="Percent 3" xfId="374" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
-    <cellStyle name="Percent 3 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
-    <cellStyle name="Percent 3 2 2" xfId="376" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
-    <cellStyle name="Percent 3 3" xfId="377" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
-    <cellStyle name="Percent 3 3 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
-    <cellStyle name="Percent 3 3 3" xfId="379" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
-    <cellStyle name="Percent 3 4" xfId="380" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
-    <cellStyle name="Percent 4" xfId="381" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
-    <cellStyle name="Percent 4 2" xfId="382" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
-    <cellStyle name="PPCRef_AA_CON_14272123750d4f829dece9d89ed300b7_14272123750d4f829dece9d89ed300b7" xfId="383" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
-    <cellStyle name="Title 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
-    <cellStyle name="Title 3" xfId="385" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
-    <cellStyle name="Total 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
-    <cellStyle name="Total 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
-    <cellStyle name="Total 2 2 2" xfId="388" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
-    <cellStyle name="Total 2 2 2 2" xfId="389" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
-    <cellStyle name="Total 2 2 3" xfId="390" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
-    <cellStyle name="Total 2 2 3 2" xfId="391" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
-    <cellStyle name="Total 2 3" xfId="392" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
-    <cellStyle name="Total 2 3 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
-    <cellStyle name="Total 2 4" xfId="394" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
-    <cellStyle name="Total 2 4 2" xfId="395" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
-    <cellStyle name="Total 3" xfId="396" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
-    <cellStyle name="Total 3 2" xfId="397" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
-    <cellStyle name="Total 3 2 2" xfId="398" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
-    <cellStyle name="Total 3 3" xfId="399" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
-    <cellStyle name="Total 3 3 2" xfId="400" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
-    <cellStyle name="Warning Text 2" xfId="401" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
-    <cellStyle name="Warning Text 2 2" xfId="402" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
-    <cellStyle name="Warning Text 3" xfId="403" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Normal 10" xfId="279"/>
+    <cellStyle name="Normal 10 2" xfId="280"/>
+    <cellStyle name="Normal 10 3" xfId="281"/>
+    <cellStyle name="Normal 10 3 2" xfId="282"/>
+    <cellStyle name="Normal 11" xfId="283"/>
+    <cellStyle name="Normal 11 2" xfId="284"/>
+    <cellStyle name="Normal 12" xfId="11"/>
+    <cellStyle name="Normal 13" xfId="406"/>
+    <cellStyle name="Normal 13 2" xfId="420"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="286"/>
+    <cellStyle name="Normal 2 2 2" xfId="287"/>
+    <cellStyle name="Normal 2 2 3" xfId="288"/>
+    <cellStyle name="Normal 2 2 4" xfId="289"/>
+    <cellStyle name="Normal 2 3" xfId="290"/>
+    <cellStyle name="Normal 2 3 2" xfId="291"/>
+    <cellStyle name="Normal 2 3 2 2" xfId="292"/>
+    <cellStyle name="Normal 2 3 2 3" xfId="293"/>
+    <cellStyle name="Normal 2 3 3" xfId="294"/>
+    <cellStyle name="Normal 2 3 4" xfId="295"/>
+    <cellStyle name="Normal 2 3 5" xfId="296"/>
+    <cellStyle name="Normal 2 4" xfId="297"/>
+    <cellStyle name="Normal 2 5" xfId="298"/>
+    <cellStyle name="Normal 2 6" xfId="299"/>
+    <cellStyle name="Normal 2 7" xfId="300"/>
+    <cellStyle name="Normal 2 8" xfId="407"/>
+    <cellStyle name="Normal 2 9" xfId="285"/>
+    <cellStyle name="Normal 2 9 2" xfId="417"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 3 2" xfId="302"/>
+    <cellStyle name="Normal 3 2 2" xfId="303"/>
+    <cellStyle name="Normal 3 2 3" xfId="304"/>
+    <cellStyle name="Normal 3 3" xfId="305"/>
+    <cellStyle name="Normal 3 4" xfId="306"/>
+    <cellStyle name="Normal 3 5" xfId="307"/>
+    <cellStyle name="Normal 3 6" xfId="308"/>
+    <cellStyle name="Normal 3 7" xfId="309"/>
+    <cellStyle name="Normal 3 8" xfId="301"/>
+    <cellStyle name="Normal 3 8 2" xfId="418"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 4 10" xfId="412"/>
+    <cellStyle name="Normal 4 11" xfId="425"/>
+    <cellStyle name="Normal 4 12" xfId="428"/>
+    <cellStyle name="Normal 4 2" xfId="8"/>
+    <cellStyle name="Normal 4 2 2" xfId="312"/>
+    <cellStyle name="Normal 4 2 3" xfId="410"/>
+    <cellStyle name="Normal 4 2 3 2" xfId="423"/>
+    <cellStyle name="Normal 4 2 4" xfId="311"/>
+    <cellStyle name="Normal 4 2 5" xfId="414"/>
+    <cellStyle name="Normal 4 3" xfId="313"/>
+    <cellStyle name="Normal 4 3 2" xfId="314"/>
+    <cellStyle name="Normal 4 3 3" xfId="315"/>
+    <cellStyle name="Normal 4 4" xfId="316"/>
+    <cellStyle name="Normal 4 4 2" xfId="317"/>
+    <cellStyle name="Normal 4 5" xfId="318"/>
+    <cellStyle name="Normal 4 6" xfId="319"/>
+    <cellStyle name="Normal 4 7" xfId="408"/>
+    <cellStyle name="Normal 4 7 2" xfId="421"/>
+    <cellStyle name="Normal 4 8" xfId="310"/>
+    <cellStyle name="Normal 4 9" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal 5 2" xfId="9"/>
+    <cellStyle name="Normal 5 2 2" xfId="322"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="323"/>
+    <cellStyle name="Normal 5 2 2 3" xfId="324"/>
+    <cellStyle name="Normal 5 2 3" xfId="411"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="424"/>
+    <cellStyle name="Normal 5 2 4" xfId="321"/>
+    <cellStyle name="Normal 5 2 5" xfId="415"/>
+    <cellStyle name="Normal 5 3" xfId="325"/>
+    <cellStyle name="Normal 5 3 2" xfId="326"/>
+    <cellStyle name="Normal 5 4" xfId="409"/>
+    <cellStyle name="Normal 5 4 2" xfId="422"/>
+    <cellStyle name="Normal 5 5" xfId="320"/>
+    <cellStyle name="Normal 5 6" xfId="6"/>
+    <cellStyle name="Normal 5 7" xfId="413"/>
+    <cellStyle name="Normal 5 8" xfId="426"/>
+    <cellStyle name="Normal 5 9" xfId="429"/>
+    <cellStyle name="Normal 6" xfId="327"/>
+    <cellStyle name="Normal 6 2" xfId="328"/>
+    <cellStyle name="Normal 6 3" xfId="329"/>
+    <cellStyle name="Normal 6 3 2" xfId="330"/>
+    <cellStyle name="Normal 7" xfId="331"/>
+    <cellStyle name="Normal 7 2" xfId="332"/>
+    <cellStyle name="Normal 7 2 2" xfId="333"/>
+    <cellStyle name="Normal 7 2 3" xfId="334"/>
+    <cellStyle name="Normal 7 3" xfId="335"/>
+    <cellStyle name="Normal 7 3 2" xfId="336"/>
+    <cellStyle name="Normal 7 4" xfId="337"/>
+    <cellStyle name="Normal 8" xfId="338"/>
+    <cellStyle name="Normal 8 2" xfId="339"/>
+    <cellStyle name="Normal 8 2 2" xfId="340"/>
+    <cellStyle name="Normal 9" xfId="341"/>
+    <cellStyle name="Normal 9 2" xfId="419"/>
+    <cellStyle name="Note 2" xfId="342"/>
+    <cellStyle name="Note 2 2" xfId="343"/>
+    <cellStyle name="Note 2 2 2" xfId="344"/>
+    <cellStyle name="Note 2 2 2 2" xfId="345"/>
+    <cellStyle name="Note 2 2 3" xfId="346"/>
+    <cellStyle name="Note 2 2 4" xfId="347"/>
+    <cellStyle name="Note 2 3" xfId="348"/>
+    <cellStyle name="Note 2 4" xfId="349"/>
+    <cellStyle name="Note 3" xfId="350"/>
+    <cellStyle name="Note 3 2" xfId="351"/>
+    <cellStyle name="Note 3 2 2" xfId="352"/>
+    <cellStyle name="Note 3 3" xfId="353"/>
+    <cellStyle name="Note 3 4" xfId="354"/>
+    <cellStyle name="Output 2" xfId="355"/>
+    <cellStyle name="Output 2 2" xfId="356"/>
+    <cellStyle name="Output 2 2 2" xfId="357"/>
+    <cellStyle name="Output 2 2 2 2" xfId="358"/>
+    <cellStyle name="Output 2 2 3" xfId="359"/>
+    <cellStyle name="Output 2 2 3 2" xfId="360"/>
+    <cellStyle name="Output 2 3" xfId="361"/>
+    <cellStyle name="Output 2 3 2" xfId="362"/>
+    <cellStyle name="Output 2 4" xfId="363"/>
+    <cellStyle name="Output 2 4 2" xfId="364"/>
+    <cellStyle name="Output 3" xfId="365"/>
+    <cellStyle name="Output 3 2" xfId="366"/>
+    <cellStyle name="Output 3 2 2" xfId="367"/>
+    <cellStyle name="Output 3 3" xfId="368"/>
+    <cellStyle name="Output 3 3 2" xfId="369"/>
+    <cellStyle name="Percent 2" xfId="370"/>
+    <cellStyle name="Percent 2 2" xfId="371"/>
+    <cellStyle name="Percent 2 2 2" xfId="372"/>
+    <cellStyle name="Percent 2 3" xfId="373"/>
+    <cellStyle name="Percent 3" xfId="374"/>
+    <cellStyle name="Percent 3 2" xfId="375"/>
+    <cellStyle name="Percent 3 2 2" xfId="376"/>
+    <cellStyle name="Percent 3 3" xfId="377"/>
+    <cellStyle name="Percent 3 3 2" xfId="378"/>
+    <cellStyle name="Percent 3 3 3" xfId="379"/>
+    <cellStyle name="Percent 3 4" xfId="380"/>
+    <cellStyle name="Percent 4" xfId="381"/>
+    <cellStyle name="Percent 4 2" xfId="382"/>
+    <cellStyle name="PPCRef_AA_CON_14272123750d4f829dece9d89ed300b7_14272123750d4f829dece9d89ed300b7" xfId="383"/>
+    <cellStyle name="Title 2" xfId="384"/>
+    <cellStyle name="Title 3" xfId="385"/>
+    <cellStyle name="Total 2" xfId="386"/>
+    <cellStyle name="Total 2 2" xfId="387"/>
+    <cellStyle name="Total 2 2 2" xfId="388"/>
+    <cellStyle name="Total 2 2 2 2" xfId="389"/>
+    <cellStyle name="Total 2 2 3" xfId="390"/>
+    <cellStyle name="Total 2 2 3 2" xfId="391"/>
+    <cellStyle name="Total 2 3" xfId="392"/>
+    <cellStyle name="Total 2 3 2" xfId="393"/>
+    <cellStyle name="Total 2 4" xfId="394"/>
+    <cellStyle name="Total 2 4 2" xfId="395"/>
+    <cellStyle name="Total 3" xfId="396"/>
+    <cellStyle name="Total 3 2" xfId="397"/>
+    <cellStyle name="Total 3 2 2" xfId="398"/>
+    <cellStyle name="Total 3 3" xfId="399"/>
+    <cellStyle name="Total 3 3 2" xfId="400"/>
+    <cellStyle name="Warning Text 2" xfId="401"/>
+    <cellStyle name="Warning Text 2 2" xfId="402"/>
+    <cellStyle name="Warning Text 3" xfId="403"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2793,9 +2765,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2833,9 +2805,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2870,7 +2842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2905,7 +2877,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3078,418 +3050,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="35" style="46" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="46"/>
+    <col min="1" max="1" width="21.28515625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="43" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="35" style="43" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="51" t="str">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="str">
         <f>'5010.05a Detail Testing'!C2</f>
         <v>MARK COLANGELO</v>
       </c>
-      <c r="B2" s="52" t="str">
+      <c r="B2" s="49" t="str">
         <f>'5010.05a Detail Testing'!P3</f>
         <v>VP - PROJECT/PROGRAM MGMT</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="50">
         <f>'5010.05a Detail Testing'!O2</f>
         <v>263329</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="51">
         <f>'5010.05a Detail Testing'!AB2</f>
         <v>253988.90000000002</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="53">
         <f>'5010.05a Detail Testing'!AG2</f>
         <v>22314.54</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="51">
         <f>'5010.05a Detail Testing'!AJ2</f>
         <v>27111.48</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="50">
         <f t="shared" ref="H2:I2" si="0">C2+F2</f>
         <v>285643.53999999998</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="50">
         <f t="shared" si="0"/>
         <v>281100.38</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="50">
         <f>H2-I2</f>
         <v>4543.1599999999744</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="58" t="str">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="str">
         <f>'5010.05a Detail Testing'!C3</f>
         <v>JULIA BARKER</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="56" t="str">
         <f>'5010.05a Detail Testing'!P2</f>
         <v>VP - PROJECT/PROGRAM MGMT</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="57">
         <f>'5010.05a Detail Testing'!O3</f>
         <v>241186</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="58">
         <f>'5010.05a Detail Testing'!AB3</f>
         <v>253988.90000000002</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="60">
         <f>'5010.05a Detail Testing'!AG3</f>
         <v>21391.739999999998</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="61">
         <f>'5010.05a Detail Testing'!AJ3</f>
         <v>25990.32</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="62">
         <f t="shared" ref="H3:H6" si="1">C3+F3</f>
         <v>262577.74</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="62">
         <f t="shared" ref="I3:I6" si="2">D3+G3</f>
         <v>279979.22000000003</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="62">
         <f t="shared" ref="J3:J6" si="3">H3-I3</f>
         <v>-17401.48000000004</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="58" t="str">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="str">
         <f>'5010.05a Detail Testing'!C4</f>
         <v>LORI COLANGELO</v>
       </c>
-      <c r="B4" s="59" t="str">
+      <c r="B4" s="56" t="str">
         <f>'5010.05a Detail Testing'!P4</f>
         <v>VP - PROJECT/PROGRAM MGMT</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="57">
         <f>'5010.05a Detail Testing'!O4</f>
         <v>321192</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="58">
         <f>'5010.05a Detail Testing'!AB4</f>
         <v>335642.45</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="60">
         <f>'5010.05a Detail Testing'!AG4</f>
         <v>27312.59</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="61">
         <f>'5010.05a Detail Testing'!AJ4</f>
         <v>33983.040000000001</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="62">
         <f t="shared" si="1"/>
         <v>348504.59</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="62">
         <f t="shared" si="2"/>
         <v>369625.49</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="62">
         <f t="shared" si="3"/>
         <v>-21120.899999999965</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="58" t="str">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="str">
         <f>'5010.05a Detail Testing'!C5</f>
         <v>MARK HAWLEY</v>
       </c>
-      <c r="B5" s="59" t="str">
+      <c r="B5" s="56" t="str">
         <f>'5010.05a Detail Testing'!P5</f>
         <v>VP - PROJECT/PROGRAM MGMT</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="57">
         <f>'5010.05a Detail Testing'!O5</f>
         <v>356300</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="58">
         <f>'5010.05a Detail Testing'!AB5</f>
         <v>339535.9</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="60">
         <f>'5010.05a Detail Testing'!AG5</f>
         <v>32588.720000000001</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="61">
         <f>'5010.05a Detail Testing'!AJ5</f>
         <v>38316</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="62">
         <f t="shared" si="1"/>
         <v>388888.72</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="62">
         <f t="shared" si="2"/>
         <v>377851.9</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="62">
         <f t="shared" si="3"/>
         <v>11036.819999999949</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="67" t="str">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="str">
         <f>'5010.05a Detail Testing'!C6</f>
         <v>RONALDO NICHOLSON</v>
       </c>
-      <c r="B6" s="68" t="str">
+      <c r="B6" s="65" t="str">
         <f>'5010.05a Detail Testing'!P6</f>
         <v>VP - PROJECT/PROGRAM MGMT</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="66">
         <f>'5010.05a Detail Testing'!O6</f>
         <v>290125</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="67">
         <f>'5010.05a Detail Testing'!AB6</f>
         <v>339535.9</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="69">
         <f>'5010.05a Detail Testing'!AG6</f>
         <v>26533.68</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="67">
         <f>'5010.05a Detail Testing'!AJ6</f>
         <v>32367</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="66">
         <f t="shared" si="1"/>
         <v>316658.68</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="66">
         <f t="shared" si="2"/>
         <v>371902.9</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="66">
         <f t="shared" si="3"/>
         <v>-55244.22000000003</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="74" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="74" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="C12" s="77" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="75">
         <f>J2+J5</f>
         <v>15579.979999999923</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-    </row>
-    <row r="13" spans="1:12" ht="12" customHeight="1">
-      <c r="A13" s="75" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="74" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="74" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="74"/>
-      <c r="B17" s="77" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="71"/>
+      <c r="B17" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="74" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="74" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3500,60 +3472,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="222" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8" style="15" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="15" customWidth="1"/>
-    <col min="15" max="15" width="13" style="15" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" style="15" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="15" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.42578125" style="15" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" style="15" customWidth="1"/>
-    <col min="24" max="24" width="10" style="15" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" style="15" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="15" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="15" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="15" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="15" customWidth="1"/>
-    <col min="32" max="32" width="22.28515625" style="15" customWidth="1"/>
-    <col min="33" max="33" width="20.28515625" style="15" customWidth="1"/>
-    <col min="34" max="34" width="17.42578125" style="15" customWidth="1"/>
-    <col min="35" max="35" width="18" style="15" customWidth="1"/>
-    <col min="36" max="36" width="19.28515625" style="15" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="28" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="32" style="15" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="14.7109375" style="15" customWidth="1"/>
-    <col min="38" max="38" width="15.140625" style="15" customWidth="1"/>
-    <col min="39" max="39" width="17.7109375" style="15" customWidth="1"/>
-    <col min="40" max="40" width="16.140625" style="15" customWidth="1"/>
-    <col min="41" max="41" width="16.28515625" style="15" customWidth="1"/>
+    <col min="38" max="38" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="25" customFormat="1" ht="43.35" customHeight="1">
+    <row r="1" spans="1:41" s="25" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
@@ -3678,7 +3648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="44.1" customHeight="1">
+    <row r="2" spans="1:41" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>67</v>
       </c>
@@ -3818,7 +3788,7 @@
         <v>4543.1599999999744</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="37.35" customHeight="1">
+    <row r="3" spans="1:41" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>77</v>
       </c>
@@ -3958,7 +3928,7 @@
         <v>-17401.48000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="33.6" customHeight="1">
+    <row r="4" spans="1:41" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
@@ -4098,7 +4068,7 @@
         <v>-21120.899999999965</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="32.1" customHeight="1">
+    <row r="5" spans="1:41" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>85</v>
       </c>
@@ -4239,7 +4209,7 @@
         <v>11036.819999999949</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="36.6" customHeight="1">
+    <row r="6" spans="1:41" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>90</v>
       </c>
@@ -4379,7 +4349,7 @@
         <v>-55244.22000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="14.1" customHeight="1">
+    <row r="7" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
     </row>
   </sheetData>
@@ -4389,50 +4359,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N81"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="42.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="40.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="53.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="53.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="50.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="8.85546875" style="7"/>
     <col min="33" max="33" width="12.85546875" style="7" customWidth="1"/>
     <col min="34" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.1" customHeight="1">
+    <row r="1" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4521,7 +4491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.1" customHeight="1">
+    <row r="2" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>96</v>
       </c>
@@ -4582,7 +4552,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="14.1" customHeight="1">
+    <row r="3" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>98</v>
       </c>
@@ -4643,7 +4613,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="14.1" customHeight="1">
+    <row r="4" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>100</v>
       </c>
@@ -4704,7 +4674,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="14.1" customHeight="1">
+    <row r="5" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>102</v>
       </c>
@@ -4765,7 +4735,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="14.1" customHeight="1">
+    <row r="6" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>104</v>
       </c>
@@ -4826,7 +4796,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="14.1" customHeight="1">
+    <row r="7" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>106</v>
       </c>
@@ -4887,7 +4857,7 @@
       <c r="AB7" s="38"/>
       <c r="AC7" s="38"/>
     </row>
-    <row r="8" spans="1:29" ht="14.1" customHeight="1">
+    <row r="8" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>108</v>
       </c>
@@ -4948,7 +4918,7 @@
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:29" ht="14.1" customHeight="1">
+    <row r="9" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>110</v>
       </c>
@@ -5009,7 +4979,7 @@
       <c r="AB9" s="38"/>
       <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:29" ht="14.1" customHeight="1">
+    <row r="10" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>112</v>
       </c>
@@ -5070,7 +5040,7 @@
       <c r="AB10" s="38"/>
       <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:29" ht="14.1" customHeight="1">
+    <row r="11" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>114</v>
       </c>
@@ -5131,7 +5101,7 @@
       <c r="AB11" s="38"/>
       <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:29" ht="14.1" customHeight="1">
+    <row r="12" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>115</v>
       </c>
@@ -5192,7 +5162,7 @@
       <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:29" ht="14.1" customHeight="1">
+    <row r="13" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>117</v>
       </c>
@@ -5253,7 +5223,7 @@
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:29" ht="14.1" customHeight="1">
+    <row r="14" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>119</v>
       </c>
@@ -5314,7 +5284,7 @@
       <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:29" ht="14.1" customHeight="1">
+    <row r="15" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>121</v>
       </c>
@@ -5375,7 +5345,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
     </row>
-    <row r="16" spans="1:29" ht="14.1" customHeight="1">
+    <row r="16" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>123</v>
       </c>
@@ -5436,7 +5406,7 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+    <row r="17" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>125</v>
       </c>
@@ -5497,7 +5467,7 @@
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
     </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+    <row r="18" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>127</v>
       </c>
@@ -5558,7 +5528,7 @@
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+    <row r="19" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>129</v>
       </c>
@@ -5619,7 +5589,7 @@
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>131</v>
       </c>
@@ -5680,7 +5650,7 @@
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>133</v>
       </c>
@@ -5741,7 +5711,7 @@
       <c r="AB21" s="38"/>
       <c r="AC21" s="38"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>135</v>
       </c>
@@ -5802,7 +5772,7 @@
       <c r="AB22" s="38"/>
       <c r="AC22" s="38"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>136</v>
       </c>
@@ -5863,7 +5833,7 @@
       <c r="AB23" s="38"/>
       <c r="AC23" s="38"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>138</v>
       </c>
@@ -5924,7 +5894,7 @@
       <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>140</v>
       </c>
@@ -5985,7 +5955,7 @@
       <c r="AB25" s="38"/>
       <c r="AC25" s="38"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>142</v>
       </c>
@@ -6046,7 +6016,7 @@
       <c r="AB26" s="38"/>
       <c r="AC26" s="38"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
         <v>144</v>
       </c>
@@ -6107,7 +6077,7 @@
       <c r="AB27" s="38"/>
       <c r="AC27" s="38"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
         <v>146</v>
       </c>
@@ -6168,7 +6138,7 @@
       <c r="AB28" s="38"/>
       <c r="AC28" s="38"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>148</v>
       </c>
@@ -6229,7 +6199,7 @@
       <c r="AB29" s="38"/>
       <c r="AC29" s="38"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>150</v>
       </c>
@@ -6290,7 +6260,7 @@
       <c r="AB30" s="38"/>
       <c r="AC30" s="38"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
         <v>152</v>
       </c>
@@ -6351,7 +6321,7 @@
       <c r="AB31" s="38"/>
       <c r="AC31" s="38"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
         <v>154</v>
       </c>
@@ -6412,7 +6382,7 @@
       <c r="AB32" s="38"/>
       <c r="AC32" s="38"/>
     </row>
-    <row r="33" spans="1:29" ht="14.1" customHeight="1">
+    <row r="33" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
         <v>156</v>
       </c>
@@ -6473,7 +6443,7 @@
       <c r="AB33" s="38"/>
       <c r="AC33" s="38"/>
     </row>
-    <row r="34" spans="1:29" ht="14.1" customHeight="1">
+    <row r="34" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
         <v>158</v>
       </c>
@@ -6534,7 +6504,7 @@
       <c r="AB34" s="38"/>
       <c r="AC34" s="38"/>
     </row>
-    <row r="35" spans="1:29" ht="14.1" customHeight="1">
+    <row r="35" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
         <v>160</v>
       </c>
@@ -6595,7 +6565,7 @@
       <c r="AB35" s="38"/>
       <c r="AC35" s="38"/>
     </row>
-    <row r="36" spans="1:29" ht="14.1" customHeight="1">
+    <row r="36" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
         <v>162</v>
       </c>
@@ -6656,7 +6626,7 @@
       <c r="AB36" s="38"/>
       <c r="AC36" s="38"/>
     </row>
-    <row r="37" spans="1:29" ht="14.1" customHeight="1">
+    <row r="37" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
         <v>163</v>
       </c>
@@ -6717,7 +6687,7 @@
       <c r="AB37" s="38"/>
       <c r="AC37" s="38"/>
     </row>
-    <row r="38" spans="1:29" ht="14.1" customHeight="1">
+    <row r="38" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>165</v>
       </c>
@@ -6778,7 +6748,7 @@
       <c r="AB38" s="38"/>
       <c r="AC38" s="38"/>
     </row>
-    <row r="39" spans="1:29" ht="14.1" customHeight="1">
+    <row r="39" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
         <v>167</v>
       </c>
@@ -6839,7 +6809,7 @@
       <c r="AB39" s="38"/>
       <c r="AC39" s="38"/>
     </row>
-    <row r="40" spans="1:29" ht="14.1" customHeight="1">
+    <row r="40" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
         <v>169</v>
       </c>
@@ -6900,7 +6870,7 @@
       <c r="AB40" s="38"/>
       <c r="AC40" s="38"/>
     </row>
-    <row r="41" spans="1:29" ht="14.1" customHeight="1">
+    <row r="41" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
         <v>171</v>
       </c>
@@ -6961,7 +6931,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" ht="14.1" customHeight="1">
+    <row r="42" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
         <v>173</v>
       </c>
@@ -7022,7 +6992,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" ht="14.1" customHeight="1">
+    <row r="43" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
         <v>86</v>
       </c>
@@ -7083,7 +7053,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" ht="14.1" customHeight="1">
+    <row r="44" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
         <v>175</v>
       </c>
@@ -7144,7 +7114,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" ht="14.1" customHeight="1">
+    <row r="45" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
         <v>177</v>
       </c>
@@ -7205,7 +7175,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" ht="14.1" customHeight="1">
+    <row r="46" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
         <v>179</v>
       </c>
@@ -7266,7 +7236,7 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29" ht="14.1" customHeight="1">
+    <row r="47" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
         <v>181</v>
       </c>
@@ -7327,7 +7297,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" ht="14.1" customHeight="1">
+    <row r="48" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
         <v>183</v>
       </c>
@@ -7388,7 +7358,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29" ht="14.1" customHeight="1">
+    <row r="49" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
         <v>185</v>
       </c>
@@ -7449,7 +7419,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" ht="14.1" customHeight="1">
+    <row r="50" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
         <v>187</v>
       </c>
@@ -7510,7 +7480,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" ht="14.1" customHeight="1">
+    <row r="51" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
         <v>189</v>
       </c>
@@ -7571,7 +7541,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" ht="14.1" customHeight="1">
+    <row r="52" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
         <v>191</v>
       </c>
@@ -7632,7 +7602,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29" ht="14.1" customHeight="1">
+    <row r="53" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
         <v>193</v>
       </c>
@@ -7693,7 +7663,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" ht="14.1" customHeight="1">
+    <row r="54" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
         <v>195</v>
       </c>
@@ -7754,7 +7724,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29" ht="14.1" customHeight="1">
+    <row r="55" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
         <v>197</v>
       </c>
@@ -7815,7 +7785,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" ht="14.1" customHeight="1">
+    <row r="56" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
         <v>91</v>
       </c>
@@ -7876,7 +7846,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29" ht="14.1" customHeight="1">
+    <row r="57" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
         <v>199</v>
       </c>
@@ -7937,7 +7907,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" ht="14.1" customHeight="1">
+    <row r="58" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
         <v>201</v>
       </c>
@@ -7998,7 +7968,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29" ht="14.1" customHeight="1">
+    <row r="59" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
         <v>203</v>
       </c>
@@ -8059,7 +8029,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" ht="14.1" customHeight="1">
+    <row r="60" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="33" t="s">
         <v>205</v>
       </c>
@@ -8120,7 +8090,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" ht="14.1" customHeight="1">
+    <row r="61" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
         <v>207</v>
       </c>
@@ -8181,7 +8151,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" ht="14.1" customHeight="1">
+    <row r="62" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>209</v>
       </c>
@@ -8242,7 +8212,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" ht="14.1" customHeight="1">
+    <row r="63" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
         <v>211</v>
       </c>
@@ -8303,7 +8273,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" ht="14.1" customHeight="1">
+    <row r="64" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
         <v>213</v>
       </c>
@@ -8364,7 +8334,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" ht="14.1" customHeight="1">
+    <row r="65" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="34" t="s">
         <v>215</v>
       </c>
@@ -8425,7 +8395,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" ht="14.1" customHeight="1">
+    <row r="66" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="34" t="s">
         <v>218</v>
       </c>
@@ -8486,7 +8456,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29" ht="14.1" customHeight="1">
+    <row r="67" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
         <v>220</v>
       </c>
@@ -8547,7 +8517,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" ht="14.1" customHeight="1">
+    <row r="68" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
         <v>222</v>
       </c>
@@ -8608,7 +8578,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" ht="14.1" customHeight="1">
+    <row r="69" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="34" t="s">
         <v>224</v>
       </c>
@@ -8669,7 +8639,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" ht="14.1" customHeight="1">
+    <row r="70" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="34" t="s">
         <v>226</v>
       </c>
@@ -8730,7 +8700,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" ht="14.1" customHeight="1">
+    <row r="71" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="34" t="s">
         <v>228</v>
       </c>
@@ -8791,7 +8761,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" ht="14.1" customHeight="1">
+    <row r="72" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="34" t="s">
         <v>230</v>
       </c>
@@ -8852,7 +8822,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" ht="14.1" customHeight="1">
+    <row r="73" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="34" t="s">
         <v>232</v>
       </c>
@@ -8913,7 +8883,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" ht="14.1" customHeight="1">
+    <row r="74" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="34" t="s">
         <v>234</v>
       </c>
@@ -8974,7 +8944,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29" ht="14.1" customHeight="1">
+    <row r="75" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="34" t="s">
         <v>236</v>
       </c>
@@ -9035,7 +9005,7 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29" ht="14.1" customHeight="1">
+    <row r="76" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33" t="s">
         <v>238</v>
       </c>
@@ -9096,7 +9066,7 @@
       <c r="AB76" s="38"/>
       <c r="AC76" s="38"/>
     </row>
-    <row r="77" spans="1:29" ht="14.1" customHeight="1">
+    <row r="77" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="34" t="s">
         <v>240</v>
       </c>
@@ -9157,7 +9127,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" spans="1:29" ht="14.1" customHeight="1">
+    <row r="78" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="34" t="s">
         <v>242</v>
       </c>
@@ -9218,7 +9188,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" spans="1:29" ht="14.1" customHeight="1">
+    <row r="79" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="34" t="s">
         <v>244</v>
       </c>
@@ -9279,7 +9249,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" spans="1:29" ht="14.1" customHeight="1">
+    <row r="80" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="34" t="s">
         <v>246</v>
       </c>
@@ -9340,7 +9310,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="1:33" ht="14.1" customHeight="1">
+    <row r="81" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="34" t="s">
         <v>248</v>
       </c>
@@ -9401,65 +9371,6 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A82" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-    </row>
-    <row r="83" spans="1:33" s="33" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A83" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-    </row>
-    <row r="84" spans="1:33" ht="14.1" customHeight="1">
-      <c r="A84" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="45"/>
-      <c r="P84" s="45"/>
-      <c r="Q84" s="45"/>
-      <c r="R84" s="45"/>
-      <c r="S84" s="45"/>
-      <c r="T84" s="45"/>
-      <c r="U84" s="45"/>
-      <c r="V84" s="45"/>
-      <c r="W84" s="45"/>
-      <c r="X84" s="45"/>
-      <c r="Y84" s="45"/>
-      <c r="Z84" s="45"/>
-      <c r="AA84" s="45"/>
-      <c r="AB84" s="45"/>
-      <c r="AC84" s="45"/>
-      <c r="AD84" s="45"/>
-      <c r="AE84" s="45"/>
-      <c r="AF84" s="45"/>
-      <c r="AG84" s="45"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -9470,9 +9381,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9620,22 +9534,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A108B9-00BF-4326-B67D-6EAEB3DD6DF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8172EC0A-17AE-4523-AC53-80F8E1F0F7C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3552A26F-9212-48BD-9D5C-4E0D657C53A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3552A26F-9212-48BD-9D5C-4E0D657C53A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6139d16e-c87d-46aa-b2c4-0da7546aa6ab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8172EC0A-17AE-4523-AC53-80F8E1F0F7C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A108B9-00BF-4326-B67D-6EAEB3DD6DF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>